--- a/color/colors-names-freqs.xlsx
+++ b/color/colors-names-freqs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikout\AppData\Local\Google\Cloud SDK\tutorial\python-vision\samples\snippets\quickstart\color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{4AC34FB1-8109-46BB-A844-CF994A31480C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167D792-7771-499A-BF74-887F6C734B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colors-names-freqs" sheetId="1" r:id="rId1"/>
+    <sheet name="abbott" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abbott!$A$1:$A$71</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">abbott!#REF!</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="225">
   <si>
     <t>whitesmoke</t>
   </si>
@@ -359,12 +376,348 @@
   </si>
   <si>
     <t>freqs</t>
+  </si>
+  <si>
+    <t>hexnames</t>
+  </si>
+  <si>
+    <t>#F5F5F5</t>
+  </si>
+  <si>
+    <t>#F8F8FF</t>
+  </si>
+  <si>
+    <t>#696969</t>
+  </si>
+  <si>
+    <t>#87CEEB</t>
+  </si>
+  <si>
+    <t>#C0C0C0</t>
+  </si>
+  <si>
+    <t>#D2B48C</t>
+  </si>
+  <si>
+    <t>#6495ED</t>
+  </si>
+  <si>
+    <t>#6B8E23</t>
+  </si>
+  <si>
+    <t>#483D8B</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#1E90FF</t>
+  </si>
+  <si>
+    <t>#6A5ACD</t>
+  </si>
+  <si>
+    <t>#4682B4</t>
+  </si>
+  <si>
+    <t>#FFEBCD</t>
+  </si>
+  <si>
+    <t>#DC143C</t>
+  </si>
+  <si>
+    <t>#FFFAFA</t>
+  </si>
+  <si>
+    <t>#2F4F4F</t>
+  </si>
+  <si>
+    <t>#191970</t>
+  </si>
+  <si>
+    <t>#556B2F</t>
+  </si>
+  <si>
+    <t>#E6E6FA</t>
+  </si>
+  <si>
+    <t>#FAF0E6</t>
+  </si>
+  <si>
+    <t>#48D1CC</t>
+  </si>
+  <si>
+    <t>#DCDCDC</t>
+  </si>
+  <si>
+    <t>#A9A9A9</t>
+  </si>
+  <si>
+    <t>#B0C4DE</t>
+  </si>
+  <si>
+    <t>#800000</t>
+  </si>
+  <si>
+    <t>#FF8C00</t>
+  </si>
+  <si>
+    <t>#F5FFFA</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>#778899</t>
+  </si>
+  <si>
+    <t>#8FBC8F</t>
+  </si>
+  <si>
+    <t>#CD5C5C</t>
+  </si>
+  <si>
+    <t>#708090</t>
+  </si>
+  <si>
+    <t>#DAA520</t>
+  </si>
+  <si>
+    <t>#BDB76B</t>
+  </si>
+  <si>
+    <t>#5F9EA0</t>
+  </si>
+  <si>
+    <t>#FF6347</t>
+  </si>
+  <si>
+    <t>#ADD8E6</t>
+  </si>
+  <si>
+    <t>#A52A2A</t>
+  </si>
+  <si>
+    <t>#B22222</t>
+  </si>
+  <si>
+    <t>#DA70D6</t>
+  </si>
+  <si>
+    <t>#008080</t>
+  </si>
+  <si>
+    <t>#FFA07A</t>
+  </si>
+  <si>
+    <t>#D3D3D3</t>
+  </si>
+  <si>
+    <t>#F4A460</t>
+  </si>
+  <si>
+    <t>#F5DEB3</t>
+  </si>
+  <si>
+    <t>#DEB887</t>
+  </si>
+  <si>
+    <t>#CD853F</t>
+  </si>
+  <si>
+    <t>#F0F8FF</t>
+  </si>
+  <si>
+    <t>#FFD700</t>
+  </si>
+  <si>
+    <t>#4169E1</t>
+  </si>
+  <si>
+    <t>#4B0082</t>
+  </si>
+  <si>
+    <t>#D8BFD8</t>
+  </si>
+  <si>
+    <t>#FFA500</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>#C71585</t>
+  </si>
+  <si>
+    <t>#006400</t>
+  </si>
+  <si>
+    <t>#FFE4C4</t>
+  </si>
+  <si>
+    <t>#FAEBD7</t>
+  </si>
+  <si>
+    <t>#8B4513</t>
+  </si>
+  <si>
+    <t>#BC8F8F</t>
+  </si>
+  <si>
+    <t>#228B22</t>
+  </si>
+  <si>
+    <t>#7FFFD4</t>
+  </si>
+  <si>
+    <t>#FFB6C1</t>
+  </si>
+  <si>
+    <t>#F0E68C</t>
+  </si>
+  <si>
+    <t>#FF1493</t>
+  </si>
+  <si>
+    <t>#20B2AA</t>
+  </si>
+  <si>
+    <t>#FF69B4</t>
+  </si>
+  <si>
+    <t>#9ACD32</t>
+  </si>
+  <si>
+    <t>#00BFFF</t>
+  </si>
+  <si>
+    <t>#AFEEEE</t>
+  </si>
+  <si>
+    <t>#B0E0E6</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#B8860B</t>
+  </si>
+  <si>
+    <t>#A0522D</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#FA8072</t>
+  </si>
+  <si>
+    <t>#F5F5DC</t>
+  </si>
+  <si>
+    <t>#66CDAA</t>
+  </si>
+  <si>
+    <t>#2E8B57</t>
+  </si>
+  <si>
+    <t>#F08080</t>
+  </si>
+  <si>
+    <t>#0000CD</t>
+  </si>
+  <si>
+    <t>#40E0D0</t>
+  </si>
+  <si>
+    <t>#DB7093</t>
+  </si>
+  <si>
+    <t>#3CB371</t>
+  </si>
+  <si>
+    <t>#BA55D3</t>
+  </si>
+  <si>
+    <t>#FFE4E1</t>
+  </si>
+  <si>
+    <t>#9400D3</t>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+  </si>
+  <si>
+    <t>#FFEFD5</t>
+  </si>
+  <si>
+    <t>#D2691E</t>
+  </si>
+  <si>
+    <t>#EEE8AA</t>
+  </si>
+  <si>
+    <t>#00CED1</t>
+  </si>
+  <si>
+    <t>#FFE4B5</t>
+  </si>
+  <si>
+    <t>#9370DB</t>
+  </si>
+  <si>
+    <t>#FFF5EE</t>
+  </si>
+  <si>
+    <t>#9932CC</t>
+  </si>
+  <si>
+    <t>#87CEFA</t>
+  </si>
+  <si>
+    <t>#32CD32</t>
+  </si>
+  <si>
+    <t>#90EE90</t>
+  </si>
+  <si>
+    <t>#008B8B</t>
+  </si>
+  <si>
+    <t>#FFDAB9</t>
+  </si>
+  <si>
+    <t>#E0FFFF</t>
+  </si>
+  <si>
+    <t>#FFFAF0</t>
+  </si>
+  <si>
+    <t>#8B008B</t>
+  </si>
+  <si>
+    <t>#FAFAD2</t>
+  </si>
+  <si>
+    <t>#FFDEAD</t>
+  </si>
+  <si>
+    <t>#FF7F50</t>
+  </si>
+  <si>
+    <t>#FFF0F5</t>
+  </si>
+  <si>
+    <t>#8A2BE2</t>
+  </si>
+  <si>
+    <t>#FF4500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -501,7 +854,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,8 +1034,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -797,6 +1156,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -842,8 +1221,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,7 +1272,29 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -900,6 +1305,15 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3840501-E191-4D1B-88E4-BD3BFA634BBB}" name="Table1" displayName="Table1" ref="A1:A71" totalsRowShown="0" tableBorderDxfId="1">
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{82373796-F9FF-4014-A73F-A8F73E9AE3E7}" name="colors" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1198,915 +1612,1629 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
       <c r="B1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>243</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>159</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>168</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>191</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>106</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>73</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>83</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>67</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>60</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>23</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>15</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>12</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
         <v>33</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>15</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>3</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
+      <c r="C112" s="4" t="s">
+        <v>224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA343CD4-0F91-4054-8EAD-162AD1620657}">
+  <dimension ref="A1:A71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/color/colors-names-freqs.xlsx
+++ b/color/colors-names-freqs.xlsx
@@ -8,17 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikout\AppData\Local\Google\Cloud SDK\tutorial\python-vision\samples\snippets\quickstart\color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167D792-7771-499A-BF74-887F6C734B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B653D3EA-3CA5-4099-A7EA-832786C5DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colors-names-freqs" sheetId="1" r:id="rId1"/>
-    <sheet name="abbott" sheetId="2" r:id="rId2"/>
+    <sheet name="sanofi" sheetId="2" r:id="rId2"/>
+    <sheet name="abbott" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abbott!$A$1:$A$71</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="1">abbott!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abbott!$A$2:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sanofi!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">abbott!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="1">sanofi!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="225">
   <si>
     <t>whitesmoke</t>
   </si>
@@ -854,7 +857,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1040,8 +1043,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1162,17 +1171,6 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1223,10 +1221,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1272,27 +1270,151 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom style="thin">
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1308,9 +1430,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A3840501-E191-4D1B-88E4-BD3BFA634BBB}" name="Table1" displayName="Table1" ref="A1:A71" totalsRowShown="0" tableBorderDxfId="1">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{82373796-F9FF-4014-A73F-A8F73E9AE3E7}" name="colors" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{544A3198-9EE2-4913-828B-DDD92220C60B}" name="Table3" displayName="Table3" ref="A1:C112" totalsRowShown="0">
+  <autoFilter ref="A1:C112" xr:uid="{544A3198-9EE2-4913-828B-DDD92220C60B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C112">
+    <sortCondition descending="1" ref="B1:B112"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F37014F6-F5E7-4C50-894E-F61CCC2F8A96}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{F1E11FB1-717A-44FF-8E0E-BB630272EC2A}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="5">
+  <autoFilter ref="A1:C31" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48DD030B-FF7F-4CA2-ADF4-6940D2832735}" name="Table2" displayName="Table2" ref="A1:C29" totalsRowShown="0">
+  <autoFilter ref="A1:C29" xr:uid="{48DD030B-FF7F-4CA2-ADF4-6940D2832735}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
+    <sortCondition descending="1" ref="B1:B29"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{814C2178-CE33-4EE9-8223-883825A58C8B}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{44D35245-0928-4D8A-A10F-309235413E84}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{6DF7D27F-7507-46AA-90DB-9F843DBA487F}" name="hexnames"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,14 +1770,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1632,7 +1787,7 @@
       <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1643,1207 +1798,1207 @@
       <c r="B2">
         <v>243</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>191</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>66</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>116</v>
+        <v>168</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>159</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>159</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>119</v>
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B8">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>83</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B9">
-        <v>18</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>168</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>122</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>83</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>73</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>71</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>66</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>128</v>
+        <v>59</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>79</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>191</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>131</v>
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>59</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>106</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>133</v>
+        <v>44</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>73</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>134</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>18</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>135</v>
+        <v>39</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>136</v>
+        <v>35</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>83</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>137</v>
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>67</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>138</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>139</v>
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>140</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>141</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>52</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>142</v>
+        <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>143</v>
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>144</v>
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>15</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>145</v>
+        <v>22</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>146</v>
+        <v>20</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B35">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>147</v>
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B36">
-        <v>23</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>148</v>
+        <v>19</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>29</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>149</v>
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>150</v>
+        <v>18</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>15</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>151</v>
+        <v>18</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>152</v>
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B41">
         <v>17</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>153</v>
+      <c r="C41" s="1" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42">
-        <v>3</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>154</v>
+        <v>17</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>32</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>156</v>
+        <v>15</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>22</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>157</v>
+        <v>15</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B46">
         <v>15</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>158</v>
+      <c r="C46" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>5</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>159</v>
+        <v>15</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>160</v>
+        <v>15</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="B50">
         <v>15</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>162</v>
+      <c r="C50" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>9</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B52">
-        <v>15</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>164</v>
+        <v>13</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B53">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>18</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>166</v>
+        <v>12</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>167</v>
+        <v>11</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B56">
-        <v>8</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>168</v>
+        <v>11</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B57">
-        <v>12</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>169</v>
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>2</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>170</v>
+        <v>9</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B59">
-        <v>17</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>171</v>
+        <v>9</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>25</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>172</v>
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B61">
-        <v>15</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>173</v>
+        <v>9</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>42</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>174</v>
+        <v>8</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>4</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>175</v>
+        <v>7</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>176</v>
+        <v>7</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B65">
-        <v>4</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>177</v>
+        <v>7</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B66">
-        <v>9</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>178</v>
+        <v>6</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B67">
-        <v>20</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>179</v>
+        <v>6</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>19</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>180</v>
+        <v>6</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B69">
         <v>5</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>181</v>
+      <c r="C69" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70">
-        <v>33</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>182</v>
+        <v>5</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B71">
-        <v>2</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>183</v>
+        <v>5</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B72">
-        <v>4</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>184</v>
+        <v>5</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="B73">
-        <v>3</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>185</v>
+        <v>5</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B74">
-        <v>3</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>186</v>
+        <v>5</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>187</v>
+        <v>4</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B76">
-        <v>15</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>188</v>
+        <v>4</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>189</v>
+      <c r="C77" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>190</v>
+      <c r="C78" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B79">
-        <v>5</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>191</v>
+        <v>4</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>9</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>192</v>
+        <v>4</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B81">
-        <v>7</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>193</v>
+        <v>4</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>194</v>
+        <v>4</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>195</v>
+        <v>4</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B84">
-        <v>2</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>196</v>
+        <v>4</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>197</v>
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>198</v>
+      <c r="C86" s="1" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="B87">
-        <v>4</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>199</v>
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B88">
-        <v>6</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>200</v>
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>201</v>
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="B90">
-        <v>4</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>202</v>
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>13</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>203</v>
+        <v>3</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B92">
-        <v>11</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>204</v>
+        <v>3</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>205</v>
+      <c r="C93" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B94">
-        <v>4</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>206</v>
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B95">
-        <v>7</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>207</v>
+        <v>2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B96">
-        <v>5</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>208</v>
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="B97">
-        <v>5</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>209</v>
+        <v>2</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B98">
-        <v>3</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>210</v>
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>5</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>211</v>
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>212</v>
+      <c r="C100" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>213</v>
+      <c r="C101" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>4</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>214</v>
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>215</v>
+      <c r="C103" s="1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104">
-        <v>3</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>216</v>
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B105">
-        <v>3</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>217</v>
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>218</v>
+      <c r="C106" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>219</v>
+      <c r="C107" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B108">
-        <v>2</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>220</v>
+        <v>1</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>2</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>221</v>
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>222</v>
+      <c r="C110" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B111">
-        <v>2</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>223</v>
+        <v>1</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2853,382 +3008,714 @@
       <c r="B112">
         <v>1</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="1" t="s">
         <v>224</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA343CD4-0F91-4054-8EAD-162AD1620657}">
-  <dimension ref="A1:A71"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E20959-4EB9-401E-AC38-16B4154C7101}">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>9</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/color/colors-names-freqs.xlsx
+++ b/color/colors-names-freqs.xlsx
@@ -8,19 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikout\AppData\Local\Google\Cloud SDK\tutorial\python-vision\samples\snippets\quickstart\color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B653D3EA-3CA5-4099-A7EA-832786C5DECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C3617-FBA5-4AFB-A7CA-9040F243D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colors-names-freqs" sheetId="1" r:id="rId1"/>
     <sheet name="sanofi" sheetId="2" r:id="rId2"/>
     <sheet name="abbott" sheetId="3" r:id="rId3"/>
+    <sheet name="boehringen" sheetId="6" r:id="rId4"/>
+    <sheet name="baxter" sheetId="7" r:id="rId5"/>
+    <sheet name="amgen" sheetId="8" r:id="rId6"/>
+    <sheet name="roche" sheetId="9" r:id="rId7"/>
+    <sheet name="jj" sheetId="10" r:id="rId8"/>
+    <sheet name="merck" sheetId="11" r:id="rId9"/>
+    <sheet name="pfizer" sheetId="12" r:id="rId10"/>
+    <sheet name="bristol" sheetId="13" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abbott!$A$2:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">amgen!$A$2:$A$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">baxter!$A$2:$A$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">boehringen!$A$1:$A$196</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">bristol!$A$2:$A$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">jj!$A$2:$A$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">merck!$A$2:$A$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">pfizer!$A$2:$A$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">roche!$A$2:$A$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sanofi!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">abbott!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="5">amgen!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="4">baxter!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="3">boehringen!$D$1</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="10">bristol!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="7">jj!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="8">merck!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="9">pfizer!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="6">roche!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">sanofi!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -40,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="225">
   <si>
     <t>whitesmoke</t>
   </si>
@@ -1219,12 +1243,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1270,7 +1295,16 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1329,48 +1363,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1414,6 +1406,48 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
@@ -1438,19 +1472,55 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F37014F6-F5E7-4C50-894E-F61CCC2F8A96}" name="colors"/>
     <tableColumn id="2" xr3:uid="{F1E11FB1-717A-44FF-8E0E-BB630272EC2A}" name="freqs"/>
-    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{09E617CA-41CE-4DEC-828F-B28A233F97E9}" name="Table12" displayName="Table12" ref="A1:C33" totalsRowShown="0">
+  <autoFilter ref="A1:C33" xr:uid="{09E617CA-41CE-4DEC-828F-B28A233F97E9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+    <sortCondition descending="1" ref="B2:B33"/>
+    <sortCondition ref="A2:A33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BC68A6DA-864A-4BE6-B51A-F078E61B45D7}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{23F5B355-AF29-4FCB-AE7D-AFA778DA394D}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{9179CB92-77F0-4FA2-B5A8-E899769CE60A}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F80EC4AE-2643-4336-BC64-5AD9FFC8FC34}" name="Table13" displayName="Table13" ref="A1:C27" totalsRowShown="0">
+  <autoFilter ref="A1:C27" xr:uid="{F80EC4AE-2643-4336-BC64-5AD9FFC8FC34}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C27">
+    <sortCondition descending="1" ref="B2:B27"/>
+    <sortCondition ref="A2:A27"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E6DDA6E0-86F7-4DFC-BEB0-AD7A5FF8599E}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{F75F9350-BE41-4D59-AF41-6E47E9A93FD0}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{E60B68B3-1DA6-4EB3-8BDD-048A01ACC679}" name="hexnames"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="A1:C31" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
+    <sortCondition descending="1" ref="B2:B31"/>
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1460,12 +1530,109 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{48DD030B-FF7F-4CA2-ADF4-6940D2832735}" name="Table2" displayName="Table2" ref="A1:C29" totalsRowShown="0">
   <autoFilter ref="A1:C29" xr:uid="{48DD030B-FF7F-4CA2-ADF4-6940D2832735}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C29">
-    <sortCondition descending="1" ref="B1:B29"/>
+    <sortCondition descending="1" ref="B2:B29"/>
+    <sortCondition ref="A2:A29"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{814C2178-CE33-4EE9-8223-883825A58C8B}" name="colors"/>
     <tableColumn id="2" xr3:uid="{44D35245-0928-4D8A-A10F-309235413E84}" name="freqs"/>
     <tableColumn id="3" xr3:uid="{6DF7D27F-7507-46AA-90DB-9F843DBA487F}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E3EA88DB-E8F3-4C13-B551-26B146065BEB}" name="Table5" displayName="Table5" ref="A1:C56" totalsRowShown="0">
+  <autoFilter ref="A1:C56" xr:uid="{E3EA88DB-E8F3-4C13-B551-26B146065BEB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C56">
+    <sortCondition descending="1" ref="B2:B56"/>
+    <sortCondition ref="A2:A56"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9F7F9281-8E71-4937-99C5-CB1E71EDA0D3}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{35B7EC1C-025C-42FD-9830-E20BD0F03714}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{BC338EB5-894F-42C1-9082-533695CF62D8}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{19B00F7B-9B69-41FE-A59D-7727D251E43A}" name="Table7" displayName="Table7" ref="A1:C17" totalsRowShown="0">
+  <autoFilter ref="A1:C17" xr:uid="{19B00F7B-9B69-41FE-A59D-7727D251E43A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition descending="1" ref="B2:B17"/>
+    <sortCondition ref="A2:A17"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8E56F105-1310-44E5-A881-ABA56A97493E}" name="colors" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{ECA19561-EFA9-441B-B3CD-BCD876F89F59}" name="freqs" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C3C79A59-30BF-4F28-92CE-4B01D3A00BE7}" name="hexnames" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{54AA1B69-1ACA-4614-AE69-C9423989A72D}" name="Table8" displayName="Table8" ref="A1:C25" totalsRowShown="0">
+  <autoFilter ref="A1:C25" xr:uid="{54AA1B69-1ACA-4614-AE69-C9423989A72D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C25">
+    <sortCondition descending="1" ref="B2:B25"/>
+    <sortCondition ref="A2:A25"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F96C56EF-3FAD-4ED7-BF7B-158B31ECF82E}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{29FC18E5-16BD-4D22-9349-8231755685B4}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{67D3C5E9-3506-4F84-A0B5-B8A39D8DCBE9}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{6ECF1738-1DD9-4DDD-B284-CBA36112CE34}" name="Table9" displayName="Table9" ref="A1:C26" totalsRowShown="0">
+  <autoFilter ref="A1:C26" xr:uid="{6ECF1738-1DD9-4DDD-B284-CBA36112CE34}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition descending="1" ref="B2:B26"/>
+    <sortCondition ref="A2:A26"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{96DFC8C7-0DEC-43B9-AF9D-E8F65D56143C}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{9AC2C3A5-5F9C-4E89-8C60-C175D98AB7B7}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{C579A337-8327-42D1-AE6C-57A64C1180C6}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C8E1F7CB-F2D6-4EAF-963C-815AAF02418C}" name="Table10" displayName="Table10" ref="A1:C35" totalsRowShown="0">
+  <autoFilter ref="A1:C35" xr:uid="{C8E1F7CB-F2D6-4EAF-963C-815AAF02418C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition descending="1" ref="B2:B35"/>
+    <sortCondition ref="A2:A35"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A1B24507-2A48-4680-A943-9618A4A3D566}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{3AD15935-06BE-4503-A0DB-12F942C1D9B5}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{8A19A48C-17AA-4AB8-8E99-1D0023E472A6}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C0C1190E-96AF-4621-9EA2-810EDB3930B6}" name="Table11" displayName="Table11" ref="A1:C33" totalsRowShown="0">
+  <autoFilter ref="A1:C33" xr:uid="{C0C1190E-96AF-4621-9EA2-810EDB3930B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C33">
+    <sortCondition descending="1" ref="B2:B33"/>
+    <sortCondition ref="A2:A33"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A6FFABD6-A33B-44F9-8E2A-05352779B5A0}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{8A742862-F7BA-43D0-93B7-D23E5E58F4AE}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{384D5320-2556-4AAE-A4EE-B7E4DFA841DB}" name="hexnames"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1771,7 +1938,7 @@
   <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3021,12 +3188,718 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317D19A2-72B3-4AB1-9400-41AF1278ACE2}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7714B3F3-ADF0-4CBC-8429-BF25B8A89C60}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA343CD4-0F91-4054-8EAD-162AD1620657}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3091,102 +3964,102 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>126</v>
+      <c r="C6" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>143</v>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>174</v>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -3213,13 +4086,13 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>132</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3235,134 +4108,134 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>161</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>129</v>
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
         <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>223</v>
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>148</v>
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3389,7 +4262,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3406,7 +4279,7 @@
       <c r="B1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3467,24 +4340,24 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3500,13 +4373,13 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3522,134 +4395,1323 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F75E2B3-4730-4528-888A-4D3AC3A041A4}">
+  <dimension ref="A1:C56"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB563A3-90EE-48A0-9CB4-F5B881EC25E2}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F67521-904B-4D9A-91DC-D56995DFDB74}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3665,57 +5727,1115 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADCEAC4-C9FF-40C5-8815-F1399E72561F}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521B655B-8A7F-41BB-ABEE-A291C74EBD10}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>63</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9350291-9E29-4969-858C-BD1043570BD7}">
+  <dimension ref="A1:C33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/color/colors-names-freqs.xlsx
+++ b/color/colors-names-freqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikout\AppData\Local\Google\Cloud SDK\tutorial\python-vision\samples\snippets\quickstart\color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794C3617-FBA5-4AFB-A7CA-9040F243D418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469619B7-9093-429C-B535-A60FF1A02984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colors-names-freqs" sheetId="1" r:id="rId1"/>
@@ -24,28 +24,65 @@
     <sheet name="merck" sheetId="11" r:id="rId9"/>
     <sheet name="pfizer" sheetId="12" r:id="rId10"/>
     <sheet name="bristol" sheetId="13" r:id="rId11"/>
+    <sheet name="merck group" sheetId="15" r:id="rId12"/>
+    <sheet name="chiesi" sheetId="16" r:id="rId13"/>
+    <sheet name="eli lilly" sheetId="17" r:id="rId14"/>
+    <sheet name="novo nordisk" sheetId="18" r:id="rId15"/>
+    <sheet name="basf" sheetId="19" r:id="rId16"/>
+    <sheet name="leo" sheetId="20" r:id="rId17"/>
+    <sheet name="beiersdorf" sheetId="21" r:id="rId18"/>
+    <sheet name="novartis" sheetId="22" r:id="rId19"/>
+    <sheet name="glaxonsmithkline" sheetId="23" r:id="rId20"/>
+    <sheet name="bayer" sheetId="24" r:id="rId21"/>
+    <sheet name="ucb" sheetId="25" r:id="rId22"/>
+    <sheet name="astrazeneca" sheetId="26" r:id="rId23"/>
+    <sheet name="astellas" sheetId="27" r:id="rId24"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abbott!$A$2:$A$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">amgen!$A$2:$A$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">astrazeneca!$A$2:$A$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">basf!$A$2:$A$55</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">baxter!$A$2:$A$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">bayer!$A$2:$A$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">beiersdorf!$A$2:$A$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">boehringen!$A$1:$A$196</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">bristol!$A$2:$A$141</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">chiesi!$A$2:$A$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'eli lilly'!$A$2:$A$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">glaxonsmithkline!$A$2:$A$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">jj!$A$2:$A$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">leo!$A$2:$A$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">merck!$A$2:$A$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'merck group'!$A$2:$A$173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">novartis!$A$2:$A$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'novo nordisk'!$A$2:$A$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">pfizer!$A$2:$A$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">roche!$A$2:$A$92</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">sanofi!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">ucb!$A$2:$A$97</definedName>
     <definedName name="_xlnm.Extract" localSheetId="2">abbott!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="5">amgen!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="22">astrazeneca!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="15">basf!$D$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="4">baxter!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="20">bayer!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="17">beiersdorf!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="3">boehringen!$D$1</definedName>
     <definedName name="_xlnm.Extract" localSheetId="10">bristol!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="12">chiesi!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="13">'eli lilly'!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="19">glaxonsmithkline!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="7">jj!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="16">leo!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="8">merck!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="11">'merck group'!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="18">novartis!$A$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="14">'novo nordisk'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="9">pfizer!$D$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="6">roche!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">sanofi!#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="21">ucb!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="225">
   <si>
     <t>whitesmoke</t>
   </si>
@@ -1295,15 +1332,303 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -1472,7 +1797,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F37014F6-F5E7-4C50-894E-F61CCC2F8A96}" name="colors"/>
     <tableColumn id="2" xr3:uid="{F1E11FB1-717A-44FF-8E0E-BB630272EC2A}" name="freqs"/>
-    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1510,17 +1835,208 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80571EDB-844F-4A82-9DE4-12040FE4FDB4}" name="Table4" displayName="Table4" ref="A1:C50" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:C50" xr:uid="{80571EDB-844F-4A82-9DE4-12040FE4FDB4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
+    <sortCondition descending="1" ref="B2:B50"/>
+    <sortCondition ref="A2:A50"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2688CE2D-B8D0-4BFF-9A84-5EA3AC9565F0}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{F8187131-9A02-4E4B-970C-99D218A2C1A0}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{104E3ED6-1F52-4626-88EE-E7B8857E228A}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5BBC2E38-5110-4DF7-9FCA-5FE79BD5871D}" name="Table14" displayName="Table14" ref="A1:C41" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:C41" xr:uid="{5BBC2E38-5110-4DF7-9FCA-5FE79BD5871D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
+    <sortCondition descending="1" ref="B2:B41"/>
+    <sortCondition ref="A2:A41"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{DE7CE195-AFB6-4751-8497-A92A09D8DC39}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{9C8D91D0-CBDC-419B-BC88-6F8F77FBEB45}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{137616BE-CE04-4642-814B-53170D6D8103}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9CCC9171-8705-456D-A6BD-755B7D1EAC3B}" name="Table15" displayName="Table15" ref="A1:C35" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:C35" xr:uid="{9CCC9171-8705-456D-A6BD-755B7D1EAC3B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition descending="1" ref="B2:B35"/>
+    <sortCondition ref="A2:A35"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{83432EF3-A66D-4894-96A2-594AA8939DAB}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{67B434A2-62B5-4ED4-86F4-B03BC509C11F}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{374EE527-40B2-4413-AABC-12A43602D1A5}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E337F293-A819-4BDD-9F3E-413A5A34314D}" name="Table16" displayName="Table16" ref="A1:C28" totalsRowShown="0" headerRowDxfId="8">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition descending="1" ref="B2:B28"/>
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EB6CB732-66AA-44E0-BB58-1F6D5A19AA96}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{AB0F759F-3BF8-4824-B797-3BCEA06C38A4}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{3B403E22-7E72-491F-8321-BA9AF7697CB0}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C48342C4-5271-40D6-A212-A74BCE5CF39D}" name="Table17" displayName="Table17" ref="A1:C30" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:C30" xr:uid="{C48342C4-5271-40D6-A212-A74BCE5CF39D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+    <sortCondition descending="1" ref="B2:B30"/>
+    <sortCondition ref="A2:A30"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ED013249-641F-46D0-9A1D-4E194358D585}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{FF7453CD-5C61-47B9-BD27-2A439894183F}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{6B50B883-7455-4C7F-9BFE-91A3B048278D}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{59F7C1DF-C77A-4B1B-9C8E-DE5FFEF1F834}" name="Table18" displayName="Table18" ref="A1:C17" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:C17" xr:uid="{59F7C1DF-C77A-4B1B-9C8E-DE5FFEF1F834}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition descending="1" ref="B2:B17"/>
+    <sortCondition ref="A2:A17"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2E609639-5FA2-49EC-B15D-5D4F9866B14E}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{3AD48B68-1D03-4A09-A074-8A4E5146DA7D}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{6DCA84E0-218C-4D22-9A5C-0074CCB94EBE}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{7EBA47EF-6FC4-4092-A526-6E8940E90B42}" name="Table19" displayName="Table19" ref="A1:C28" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:C28" xr:uid="{7EBA47EF-6FC4-4092-A526-6E8940E90B42}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+    <sortCondition descending="1" ref="B2:B28"/>
+    <sortCondition ref="A2:A28"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{097996CF-D681-475D-9485-FC023CDC238D}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{5DD97A90-C370-4313-8844-CC4D0E21C15F}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{2BF8F01C-5875-48C9-A31A-EE364DD4C773}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{25E9085B-6855-4E3E-8EAD-6CCC9D9BEEB3}" name="Table20" displayName="Table20" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:C17" xr:uid="{25E9085B-6855-4E3E-8EAD-6CCC9D9BEEB3}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition descending="1" ref="B2:B17"/>
+    <sortCondition ref="A2:A17"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ABAA7E5D-A862-4962-B209-03CE8DB0C29D}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{AAA1C9B8-7E2B-4814-83A9-C7A91DAB9CCF}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{881C3E01-8B74-4BE5-9651-0EEE97200368}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:C31" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition descending="1" ref="B2:B31"/>
     <sortCondition ref="A2:A31"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4C1E4ECB-2688-4283-AA88-C6543CAE3B04}" name="Table21" displayName="Table21" ref="A1:C49" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C49" xr:uid="{4C1E4ECB-2688-4283-AA88-C6543CAE3B04}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
+    <sortCondition descending="1" ref="B2:B49"/>
+    <sortCondition ref="A2:A49"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BDA67D7A-43AB-464B-8380-3545A03D51B3}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{AB114509-079D-4EDF-A21C-F9488308965D}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{F94FB146-BE2A-49E7-8329-014299653EE2}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7AF37218-2E84-4036-A0AD-61D731D9F8E5}" name="Table22" displayName="Table22" ref="A1:C19" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:C19" xr:uid="{7AF37218-2E84-4036-A0AD-61D731D9F8E5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
+    <sortCondition descending="1" ref="B2:B19"/>
+    <sortCondition ref="A2:A19"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E09A5CCD-361B-4BBE-B7F0-788A073062BE}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{07CF57D2-F9D4-4B2E-88BB-27AFA41FB9CD}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{7559EBF6-6EF8-432A-B121-E94671F2F885}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{05F83879-149E-4606-A4F6-6CD818365F4C}" name="Table23" displayName="Table23" ref="A1:C32" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:C32" xr:uid="{05F83879-149E-4606-A4F6-6CD818365F4C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition descending="1" ref="B2:B32"/>
+    <sortCondition ref="A2:A32"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5979DA95-7DFB-49E2-94BD-D631F87E727D}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{44A2A68B-1F12-4523-A703-84C3D3E3B817}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{1236B6A0-3C2C-49FA-8475-264B2D7D6BFD}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{4E94A922-BFD3-407D-A5FE-22A89C019283}" name="Table24" displayName="Table24" ref="A1:C53" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C53" xr:uid="{4E94A922-BFD3-407D-A5FE-22A89C019283}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
+    <sortCondition descending="1" ref="B2:B53"/>
+    <sortCondition ref="A2:A53"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D6DC3158-5B4D-438C-82A9-42F077315522}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{AD62F17D-A233-4175-99C6-86313728FBE4}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{C23C8646-54E5-4DF1-BA4A-14668F11D6DF}" name="hexnames"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1566,9 +2082,9 @@
     <sortCondition ref="A2:A17"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E56F105-1310-44E5-A881-ABA56A97493E}" name="colors" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{ECA19561-EFA9-441B-B3CD-BCD876F89F59}" name="freqs" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{C3C79A59-30BF-4F28-92CE-4B01D3A00BE7}" name="hexnames" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8E56F105-1310-44E5-A881-ABA56A97493E}" name="colors" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{ECA19561-EFA9-441B-B3CD-BCD876F89F59}" name="freqs" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{C3C79A59-30BF-4F28-92CE-4B01D3A00BE7}" name="hexnames" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3578,8 +4094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7714B3F3-ADF0-4CBC-8429-BF25B8A89C60}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3894,12 +4410,1466 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA343CD4-0F91-4054-8EAD-162AD1620657}">
-  <dimension ref="A1:C31"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C799BF-FD82-4629-BB26-5C1DD16272DA}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC02E91D-9034-4150-8B3E-5EA11232EA6B}">
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A651D4-0E35-49D1-974C-8343DBD6651F}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E89AAD-5470-4E57-831C-F352E143FCA9}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3920,333 +5890,300 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>42</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="3">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="3">
-        <v>3</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="2">
-        <v>2</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2">
-        <v>2</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>134</v>
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>139</v>
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>161</v>
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>133</v>
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -4254,6 +6191,3314 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E547C3AA-D2D2-4CD6-9527-88E5C774972F}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0FAACB7-FCE5-42A1-8D6B-076AEA22F298}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151AC1C9-B204-4D1B-AA54-AC6C62C1091D}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EC258C-CE3B-4C1A-AF96-3A4A05D7FAD5}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA343CD4-0F91-4054-8EAD-162AD1620657}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D2F7FF1-371A-4AD4-843F-9E463A6AC6F3}">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A78EA6-FC04-47A4-B0C6-12A5CBF2F47F}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5BC671-9931-4B6E-A63A-ECC6732BAF89}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C152CB00-893D-46A0-9DCF-351A0E55B349}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA9E1A6-92F2-4B4B-82C1-B4BE824D21CD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/color/colors-names-freqs.xlsx
+++ b/color/colors-names-freqs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikout\AppData\Local\Google\Cloud SDK\tutorial\python-vision\samples\snippets\quickstart\color\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469619B7-9093-429C-B535-A60FF1A02984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7C0A9F-1C33-4476-ADC5-359FE898A4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="colors-names-freqs" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="ucb" sheetId="25" r:id="rId22"/>
     <sheet name="astrazeneca" sheetId="26" r:id="rId23"/>
     <sheet name="astellas" sheetId="27" r:id="rId24"/>
+    <sheet name="gillead" sheetId="29" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abbott!$A$2:$A$64</definedName>
@@ -50,6 +51,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">bristol!$A$2:$A$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">chiesi!$A$2:$A$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'eli lilly'!$A$2:$A$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">gillead!$A$2:$A$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">glaxonsmithkline!$A$2:$A$131</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">jj!$A$2:$A$187</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">leo!$A$2:$A$45</definedName>
@@ -72,6 +74,7 @@
     <definedName name="_xlnm.Extract" localSheetId="10">bristol!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="12">chiesi!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="13">'eli lilly'!$D$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="24">gillead!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="19">glaxonsmithkline!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="7">jj!$A$2</definedName>
     <definedName name="_xlnm.Extract" localSheetId="16">leo!$A$2</definedName>
@@ -101,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="225">
   <si>
     <t>whitesmoke</t>
   </si>
@@ -1332,7 +1335,31 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1797,7 +1824,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{F37014F6-F5E7-4C50-894E-F61CCC2F8A96}" name="colors"/>
     <tableColumn id="2" xr3:uid="{F1E11FB1-717A-44FF-8E0E-BB630272EC2A}" name="freqs"/>
-    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{9F3249EE-A99A-41F6-B739-D1C7DB40CE6C}" name="hexnames" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1836,7 +1863,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80571EDB-844F-4A82-9DE4-12040FE4FDB4}" name="Table4" displayName="Table4" ref="A1:C50" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{80571EDB-844F-4A82-9DE4-12040FE4FDB4}" name="Table4" displayName="Table4" ref="A1:C50" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:C50" xr:uid="{80571EDB-844F-4A82-9DE4-12040FE4FDB4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C50">
     <sortCondition descending="1" ref="B2:B50"/>
@@ -1852,7 +1879,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5BBC2E38-5110-4DF7-9FCA-5FE79BD5871D}" name="Table14" displayName="Table14" ref="A1:C41" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5BBC2E38-5110-4DF7-9FCA-5FE79BD5871D}" name="Table14" displayName="Table14" ref="A1:C41" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="A1:C41" xr:uid="{5BBC2E38-5110-4DF7-9FCA-5FE79BD5871D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C41">
     <sortCondition descending="1" ref="B2:B41"/>
@@ -1868,7 +1895,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9CCC9171-8705-456D-A6BD-755B7D1EAC3B}" name="Table15" displayName="Table15" ref="A1:C35" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{9CCC9171-8705-456D-A6BD-755B7D1EAC3B}" name="Table15" displayName="Table15" ref="A1:C35" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:C35" xr:uid="{9CCC9171-8705-456D-A6BD-755B7D1EAC3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
     <sortCondition descending="1" ref="B2:B35"/>
@@ -1884,7 +1911,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E337F293-A819-4BDD-9F3E-413A5A34314D}" name="Table16" displayName="Table16" ref="A1:C28" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{E337F293-A819-4BDD-9F3E-413A5A34314D}" name="Table16" displayName="Table16" ref="A1:C28" totalsRowShown="0" headerRowDxfId="9">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
     <sortCondition descending="1" ref="B2:B28"/>
     <sortCondition ref="A2:A28"/>
@@ -1899,7 +1926,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C48342C4-5271-40D6-A212-A74BCE5CF39D}" name="Table17" displayName="Table17" ref="A1:C30" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{C48342C4-5271-40D6-A212-A74BCE5CF39D}" name="Table17" displayName="Table17" ref="A1:C30" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:C30" xr:uid="{C48342C4-5271-40D6-A212-A74BCE5CF39D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
     <sortCondition descending="1" ref="B2:B30"/>
@@ -1915,7 +1942,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{59F7C1DF-C77A-4B1B-9C8E-DE5FFEF1F834}" name="Table18" displayName="Table18" ref="A1:C17" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{59F7C1DF-C77A-4B1B-9C8E-DE5FFEF1F834}" name="Table18" displayName="Table18" ref="A1:C17" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:C17" xr:uid="{59F7C1DF-C77A-4B1B-9C8E-DE5FFEF1F834}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition descending="1" ref="B2:B17"/>
@@ -1931,7 +1958,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{7EBA47EF-6FC4-4092-A526-6E8940E90B42}" name="Table19" displayName="Table19" ref="A1:C28" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{7EBA47EF-6FC4-4092-A526-6E8940E90B42}" name="Table19" displayName="Table19" ref="A1:C28" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:C28" xr:uid="{7EBA47EF-6FC4-4092-A526-6E8940E90B42}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
     <sortCondition descending="1" ref="B2:B28"/>
@@ -1947,7 +1974,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{25E9085B-6855-4E3E-8EAD-6CCC9D9BEEB3}" name="Table20" displayName="Table20" ref="A1:C17" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{25E9085B-6855-4E3E-8EAD-6CCC9D9BEEB3}" name="Table20" displayName="Table20" ref="A1:C17" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:C17" xr:uid="{25E9085B-6855-4E3E-8EAD-6CCC9D9BEEB3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
     <sortCondition descending="1" ref="B2:B17"/>
@@ -1963,23 +1990,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}" name="Table6" displayName="Table6" ref="A1:C31" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="A1:C31" xr:uid="{40E5B4E1-378D-4C0D-9B01-A8E1338618AC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
     <sortCondition descending="1" ref="B2:B31"/>
     <sortCondition ref="A2:A31"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{A3FCCDF0-A55D-48F8-81AE-F57113E147E8}" name="colors" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{551ED7E8-27F8-4FD9-8682-21EB60E62104}" name="freqs" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{4D6E2C1B-CD4D-498A-B306-E088A20F1CDB}" name="hexnames" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4C1E4ECB-2688-4283-AA88-C6543CAE3B04}" name="Table21" displayName="Table21" ref="A1:C49" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{4C1E4ECB-2688-4283-AA88-C6543CAE3B04}" name="Table21" displayName="Table21" ref="A1:C49" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:C49" xr:uid="{4C1E4ECB-2688-4283-AA88-C6543CAE3B04}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C49">
     <sortCondition descending="1" ref="B2:B49"/>
@@ -1995,7 +2022,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7AF37218-2E84-4036-A0AD-61D731D9F8E5}" name="Table22" displayName="Table22" ref="A1:C19" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{7AF37218-2E84-4036-A0AD-61D731D9F8E5}" name="Table22" displayName="Table22" ref="A1:C19" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C19" xr:uid="{7AF37218-2E84-4036-A0AD-61D731D9F8E5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C19">
     <sortCondition descending="1" ref="B2:B19"/>
@@ -2011,7 +2038,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{05F83879-149E-4606-A4F6-6CD818365F4C}" name="Table23" displayName="Table23" ref="A1:C32" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{05F83879-149E-4606-A4F6-6CD818365F4C}" name="Table23" displayName="Table23" ref="A1:C32" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:C32" xr:uid="{05F83879-149E-4606-A4F6-6CD818365F4C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
     <sortCondition descending="1" ref="B2:B32"/>
@@ -2027,7 +2054,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{4E94A922-BFD3-407D-A5FE-22A89C019283}" name="Table24" displayName="Table24" ref="A1:C53" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{4E94A922-BFD3-407D-A5FE-22A89C019283}" name="Table24" displayName="Table24" ref="A1:C53" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:C53" xr:uid="{4E94A922-BFD3-407D-A5FE-22A89C019283}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C53">
     <sortCondition descending="1" ref="B2:B53"/>
@@ -2037,6 +2064,22 @@
     <tableColumn id="1" xr3:uid="{D6DC3158-5B4D-438C-82A9-42F077315522}" name="colors"/>
     <tableColumn id="2" xr3:uid="{AD62F17D-A233-4175-99C6-86313728FBE4}" name="freqs"/>
     <tableColumn id="3" xr3:uid="{C23C8646-54E5-4DF1-BA4A-14668F11D6DF}" name="hexnames"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{D998B7BC-D185-48B0-86BB-8A8C548A4288}" name="Table25" displayName="Table25" ref="A1:C30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:C30" xr:uid="{D998B7BC-D185-48B0-86BB-8A8C548A4288}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
+    <sortCondition descending="1" ref="B2:B30"/>
+    <sortCondition ref="A2:A30"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8D7A4CBD-74F0-4D1A-94F4-E08C8D921DF1}" name="colors"/>
+    <tableColumn id="2" xr3:uid="{F3195F36-8CF7-4EF3-8E7F-B5BEE8C11131}" name="freqs"/>
+    <tableColumn id="3" xr3:uid="{BF134A2F-24C7-487E-8083-2D08A104B584}" name="hexnames"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2082,9 +2125,9 @@
     <sortCondition ref="A2:A17"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E56F105-1310-44E5-A881-ABA56A97493E}" name="colors" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{ECA19561-EFA9-441B-B3CD-BCD876F89F59}" name="freqs" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{C3C79A59-30BF-4F28-92CE-4B01D3A00BE7}" name="hexnames" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{8E56F105-1310-44E5-A881-ABA56A97493E}" name="colors" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{ECA19561-EFA9-441B-B3CD-BCD876F89F59}" name="freqs" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{C3C79A59-30BF-4F28-92CE-4B01D3A00BE7}" name="hexnames" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6552,7 +6595,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8828,8 +8871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C152CB00-893D-46A0-9DCF-351A0E55B349}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9433,8 +9476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA9E1A6-92F2-4B4B-82C1-B4BE824D21CD}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9499,6 +9542,358 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21A6407-C899-4549-9DC3-174265044EFF}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
